--- a/Correlacion de productos.xlsx
+++ b/Correlacion de productos.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3d521dedb4077d57/GitHub/Relaciones-productos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_2C65748E5B70D23933BA3811595ED87656CC4FA0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3659F79A-B29A-C642-973D-59F0CBA80AA3}"/>
+  <xr:revisionPtr revIDLastSave="38" documentId="11_2C65748E5B70D23933BA3811595ED87656CC4FA0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7FF047F7-883D-E04B-A56B-78BB41A6AEA8}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Correlaciones" sheetId="1" r:id="rId1"/>
+    <sheet name="Modelos ML" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="157">
   <si>
     <t>ITEM_N1</t>
   </si>
@@ -414,13 +415,103 @@
   </si>
   <si>
     <t>VINO TINTO LAMBRUSCO SUAVE SEMISECO 750ML</t>
+  </si>
+  <si>
+    <t>Modelo Apriori</t>
+  </si>
+  <si>
+    <t>Version 1: Todos los datos</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>itemsets</t>
+  </si>
+  <si>
+    <t>0.086</t>
+  </si>
+  <si>
+    <t>(TARJETA DE PARQUEO SERT EMOV)</t>
+  </si>
+  <si>
+    <t>0.081</t>
+  </si>
+  <si>
+    <t>(FUNDA CAMISETA PLASTICA MEDIANA YALOBOX)</t>
+  </si>
+  <si>
+    <t>0.072</t>
+  </si>
+  <si>
+    <t>(FUNDA CAMISETA PLASTICA GRANDE YALOBOX)</t>
+  </si>
+  <si>
+    <t>0.053</t>
+  </si>
+  <si>
+    <t>(FUNDA CAMISETA PLASTICA PEQUENA YALOBOX)</t>
+  </si>
+  <si>
+    <t>Version 2: Solo los datos con alta correlacion</t>
+  </si>
+  <si>
+    <t>0.145</t>
+  </si>
+  <si>
+    <t>(AGUA DASANI 1.2LT)</t>
+  </si>
+  <si>
+    <t>0.115</t>
+  </si>
+  <si>
+    <t>(AGUA DASANI 300ML)</t>
+  </si>
+  <si>
+    <t>0.099</t>
+  </si>
+  <si>
+    <t>(AGUA DASANI 600ML)</t>
+  </si>
+  <si>
+    <t>0.076</t>
+  </si>
+  <si>
+    <t>(AGUA PURE WATER 625ML)</t>
+  </si>
+  <si>
+    <t>0.070</t>
+  </si>
+  <si>
+    <t>(CLUB SANDUCHE YALOBOX)</t>
+  </si>
+  <si>
+    <t>0.066</t>
+  </si>
+  <si>
+    <t>(COLA SPRITE 300ML)</t>
+  </si>
+  <si>
+    <t>0.065</t>
+  </si>
+  <si>
+    <t>(SANDUCHE DE POLLO YALOBOX)</t>
+  </si>
+  <si>
+    <t>0.057</t>
+  </si>
+  <si>
+    <t>(BEBIDA HIDRATANTE POWERADE MANZANA CLEAR 500ML)</t>
+  </si>
+  <si>
+    <t>Modelo Frequent Pattern Growth</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -434,13 +525,32 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -470,10 +580,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -490,6 +606,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -779,8 +899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D341"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5563,4 +5683,214 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E20C435-16D6-2444-B899-4CCD504BF7A1}">
+  <dimension ref="A2:E24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="35.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="61.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" customWidth="1"/>
+    <col min="4" max="4" width="26.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="61.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D3" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C6" s="3"/>
+    </row>
+    <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>